--- a/evi/pre_evi.xlsx
+++ b/evi/pre_evi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\test\evi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\20200516\evi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D143936-2D60-48D7-BF2A-906989EDD3E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AEF7C8-1AAB-4BA5-AC9F-BA1B3D98B43B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -897,7 +897,7 @@
   <dimension ref="B1:C83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BJ120" sqref="BJ120"/>
+      <selection activeCell="BR115" sqref="BR115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="14.4"/>
